--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\_TrainingMaterial\VEDA-Training\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rioprmdt/Documents/GitHub/Demo_S012_Vonline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1AE1F2-5C8E-433D-974E-30B9418D9CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A095870E-21B9-DC45-9945-D599F538C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42080" yWindow="-10860" windowWidth="25560" windowHeight="20780" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="106">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Share-I</t>
   </si>
   <si>
-    <t>Pdef-11</t>
-  </si>
-  <si>
     <t>GW</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>mEur per kt</t>
+  </si>
+  <si>
+    <t>Pdef-A</t>
   </si>
 </sst>
 </file>
@@ -388,11 +388,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -463,6 +463,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -715,41 +716,36 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -774,20 +770,18 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -797,13 +791,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +806,7 @@
     <xf numFmtId="2" fontId="11" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,23 +821,23 @@
     <xf numFmtId="2" fontId="11" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,9 +849,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,16 +858,14 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Migliaia_tab emissioni" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1082,16 +1071,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520699</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1106,8 +1095,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800599" y="1466850"/>
-          <a:ext cx="3362325" cy="847725"/>
+          <a:off x="174624" y="2892425"/>
+          <a:ext cx="3749675" cy="863600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2789,7 +2778,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -2924,9 +2913,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2964,9 +2953,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2999,26 +2988,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3051,26 +3023,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3244,21 +3199,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J38"/>
+  <dimension ref="B3:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3268,8 +3224,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    <row r="4" spans="2:10">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3286,159 +3241,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:10">
+      <c r="B5" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="J5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:10">
+      <c r="B6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3452,145 +3281,199 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:D23"/>
+  <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4">
       <c r="B4">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4">
+      <c r="B8" t="str">
+        <f>D12</f>
+        <v>Pdef-A</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="70" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="12">
+      <c r="D12" s="66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="11">
         <v>1</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>1</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="12">
+    <row r="14" spans="2:4">
+      <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12">
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11">
         <v>5</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12">
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11">
         <v>5</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12">
+    <row r="20" spans="2:6">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
         <v>5</v>
       </c>
-      <c r="D17" s="12">
+      <c r="F20">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12">
+      <c r="F21">
+        <f>F20+D13</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
+      <c r="F22">
+        <f t="shared" ref="F22:F29" si="0">F21+D14</f>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12">
-        <v>5</v>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>2045</v>
       </c>
     </row>
   </sheetData>
@@ -3606,29 +3489,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="14" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3636,7 +3519,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
@@ -3645,7 +3528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -3659,72 +3542,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>0</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <v>0</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="s">
+    <row r="18" spans="2:4" ht="19.5" customHeight="1"/>
+    <row r="19" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:4" ht="16">
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="2:4" ht="18">
+      <c r="B32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="14" thickBot="1">
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="63" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>2222</v>
       </c>
       <c r="D36" t="s">
@@ -3734,11 +3617,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <v>8888</v>
       </c>
       <c r="D37" t="s">
@@ -3762,31 +3645,31 @@
   <dimension ref="B3:H33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.1640625" style="9"/>
+    <col min="2" max="2" width="12.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:8" ht="16">
+      <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:8">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="14" thickBot="1">
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -3809,340 +3692,315 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D7" s="10" t="s">
+    <row r="7" spans="2:8">
+      <c r="D7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="9">
         <v>2005</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D8" s="10" t="s">
+    </row>
+    <row r="8" spans="2:8">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <v>0.05</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="67" t="s">
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="13">
         <f>C23</f>
         <v>0.24971461187214614</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="67" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="13">
         <f>D23</f>
         <v>0.22973744292237441</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="67" t="s">
+    <row r="11" spans="2:8">
+      <c r="B11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="13">
         <f>E23</f>
         <v>0.24942922374429224</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="67" t="s">
+    <row r="12" spans="2:8">
+      <c r="B12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="13">
         <f>F23</f>
         <v>0.27111872146118721</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8">
       <c r="B13"/>
       <c r="C13"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>0.9</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <v>0.95</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8">
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+    </row>
+    <row r="19" spans="2:7" ht="18">
+      <c r="B19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29" t="s">
+    <row r="22" spans="2:7">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
+    <row r="23" spans="2:7">
+      <c r="B23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="27">
         <f>C32/$F32*$E27</f>
         <v>0.24971461187214614</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="28">
         <f>D32/$F32*$E27</f>
         <v>0.22973744292237441</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="28">
         <f>C33/$F33*$E28</f>
         <v>0.24942922374429224</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="29">
         <f>D33/$F33*$E28</f>
         <v>0.27111872146118721</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="30">
         <f>SUM(C23:F23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="39"/>
-      <c r="C26" s="40" t="s">
+    <row r="24" spans="2:7">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="31"/>
+      <c r="C26" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="44" t="s">
+      <c r="F26" s="36"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="39">
         <v>175</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="40">
         <f>D27/D29</f>
         <v>0.47945205479452052</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="39"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="49" t="s">
+      <c r="F27" s="41"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="44">
         <f>365-D27</f>
         <v>190</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="45">
         <f>D28/D29</f>
         <v>0.52054794520547942</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="39"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="37"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="53">
+      <c r="F28" s="41"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="46">
         <f>SUM(D27:D28)</f>
         <v>365</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="47">
         <f>SUM(E27:E28)</f>
         <v>1</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="39"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="37"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58" t="s">
+      <c r="F29" s="48"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="60" t="s">
+      <c r="E31" s="52"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="54">
         <v>12.5</v>
       </c>
-      <c r="D32" s="62">
+      <c r="D32" s="55">
         <v>11.5</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="63">
+      <c r="E32" s="48"/>
+      <c r="F32" s="48">
         <f>SUM(C32:E32)</f>
         <v>24</v>
       </c>
-      <c r="G32" s="39"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="64" t="s">
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="57">
         <v>11.5</v>
       </c>
-      <c r="D33" s="66">
+      <c r="D33" s="58">
         <v>12.5</v>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55">
+      <c r="E33" s="48"/>
+      <c r="F33" s="48">
         <f>SUM(C33:E33)</f>
         <v>24</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4161,17 +4019,17 @@
       <selection activeCell="B10" sqref="B10:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -4179,75 +4037,73 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:9" ht="14" thickBot="1">
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
-        <v>77</v>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
+      <c r="I4" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
+      <c r="I5" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="D6" t="s">
         <v>34</v>
       </c>
@@ -4263,224 +4119,221 @@
       <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="64">
         <v>1055.55</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="64">
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9">
       <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="75">
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="64">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
         <v>89</v>
-      </c>
-      <c r="D15" s="75">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>90</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="64">
         <v>1.05555</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="64">
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="64">
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="65">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="64">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="64">
+        <v>0.15384600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="64">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
         <v>94</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="75">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="75">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="75">
-        <v>0.15384600000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="75">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="64">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="64">
         <v>37.681199999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="64">
         <v>2299</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="64">
+        <v>2.7777769999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
         <v>98</v>
-      </c>
-      <c r="C27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="75">
-        <v>2.7777769999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>99</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="64">
         <v>3.6</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4">
       <c r="B29" t="s">
         <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="64">
         <v>1</v>
       </c>
     </row>
